--- a/teaching/traditional_assets/database/data/greece/greece_real_estate_development.xlsx
+++ b/teaching/traditional_assets/database/data/greece/greece_real_estate_development.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.243</v>
+        <v>-0.106</v>
       </c>
       <c r="G2">
-        <v>3.357142857142857</v>
+        <v>-37</v>
       </c>
       <c r="H2">
-        <v>3.357142857142857</v>
+        <v>-37</v>
       </c>
       <c r="I2">
-        <v>-31.71428571428572</v>
+        <v>-36.08333333333334</v>
       </c>
       <c r="J2">
-        <v>-31.71428571428572</v>
+        <v>-36.08333333333334</v>
       </c>
       <c r="K2">
-        <v>-0.64</v>
+        <v>-0.605</v>
       </c>
       <c r="L2">
-        <v>-45.71428571428572</v>
+        <v>-50.41666666666666</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.13</v>
+        <v>0.108</v>
       </c>
       <c r="V2">
-        <v>0.02665094339622641</v>
+        <v>0.001463414634146341</v>
       </c>
       <c r="W2">
-        <v>-0.08322496749024708</v>
+        <v>-0.136568848758465</v>
       </c>
       <c r="X2">
-        <v>0.08473264295631816</v>
+        <v>0.05387377572522387</v>
       </c>
       <c r="Y2">
-        <v>-0.1679576104465652</v>
+        <v>-0.1904426244836889</v>
       </c>
       <c r="Z2">
-        <v>0.001440329218106996</v>
+        <v>0.001628222523744912</v>
       </c>
       <c r="AA2">
-        <v>-0.04567901234567901</v>
+        <v>-0.0587516960651289</v>
       </c>
       <c r="AB2">
-        <v>0.08262988440710105</v>
+        <v>0.0533858702594333</v>
       </c>
       <c r="AC2">
-        <v>-0.1283088967527801</v>
+        <v>-0.1121375663245622</v>
       </c>
       <c r="AD2">
-        <v>4.07</v>
+        <v>3.75</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.07</v>
+        <v>3.75</v>
       </c>
       <c r="AG2">
-        <v>2.94</v>
+        <v>3.642</v>
       </c>
       <c r="AH2">
-        <v>0.08758338713148268</v>
+        <v>0.04835589941972921</v>
       </c>
       <c r="AI2">
-        <v>0.4788235294117648</v>
+        <v>0.5047106325706595</v>
       </c>
       <c r="AJ2">
-        <v>0.06484340538156155</v>
+        <v>0.04702874409235299</v>
       </c>
       <c r="AK2">
-        <v>0.3989145183175035</v>
+        <v>0.4974050805790767</v>
       </c>
       <c r="AL2">
-        <v>0.205</v>
+        <v>0.201</v>
       </c>
       <c r="AM2">
-        <v>0.192</v>
+        <v>0.189</v>
       </c>
       <c r="AN2">
-        <v>-9.313501144164761</v>
+        <v>-8.761682242990654</v>
       </c>
       <c r="AO2">
-        <v>-2.165853658536586</v>
+        <v>-2.154228855721393</v>
       </c>
       <c r="AP2">
-        <v>-6.727688787185356</v>
+        <v>-8.509345794392523</v>
       </c>
       <c r="AQ2">
-        <v>-2.3125</v>
+        <v>-2.291005291005291</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.243</v>
+        <v>-0.106</v>
       </c>
       <c r="G3">
-        <v>3.357142857142857</v>
+        <v>-37</v>
       </c>
       <c r="H3">
-        <v>3.357142857142857</v>
+        <v>-37</v>
       </c>
       <c r="I3">
-        <v>-31.71428571428572</v>
+        <v>-36.08333333333334</v>
       </c>
       <c r="J3">
-        <v>-31.71428571428572</v>
+        <v>-36.08333333333334</v>
       </c>
       <c r="K3">
-        <v>-0.64</v>
+        <v>-0.605</v>
       </c>
       <c r="L3">
-        <v>-45.71428571428572</v>
+        <v>-50.41666666666666</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.13</v>
+        <v>0.108</v>
       </c>
       <c r="V3">
-        <v>0.02665094339622641</v>
+        <v>0.001463414634146341</v>
       </c>
       <c r="W3">
-        <v>-0.08322496749024708</v>
+        <v>-0.136568848758465</v>
       </c>
       <c r="X3">
-        <v>0.08473264295631816</v>
+        <v>0.05387377572522387</v>
       </c>
       <c r="Y3">
-        <v>-0.1679576104465652</v>
+        <v>-0.1904426244836889</v>
       </c>
       <c r="Z3">
-        <v>0.001440329218106996</v>
+        <v>0.001628222523744912</v>
       </c>
       <c r="AA3">
-        <v>-0.04567901234567901</v>
+        <v>-0.0587516960651289</v>
       </c>
       <c r="AB3">
-        <v>0.08262988440710105</v>
+        <v>0.0533858702594333</v>
       </c>
       <c r="AC3">
-        <v>-0.1283088967527801</v>
+        <v>-0.1121375663245622</v>
       </c>
       <c r="AD3">
-        <v>4.07</v>
+        <v>3.75</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.07</v>
+        <v>3.75</v>
       </c>
       <c r="AG3">
-        <v>2.94</v>
+        <v>3.642</v>
       </c>
       <c r="AH3">
-        <v>0.08758338713148268</v>
+        <v>0.04835589941972921</v>
       </c>
       <c r="AI3">
-        <v>0.4788235294117648</v>
+        <v>0.5047106325706595</v>
       </c>
       <c r="AJ3">
-        <v>0.06484340538156155</v>
+        <v>0.04702874409235299</v>
       </c>
       <c r="AK3">
-        <v>0.3989145183175035</v>
+        <v>0.4974050805790767</v>
       </c>
       <c r="AL3">
-        <v>0.205</v>
+        <v>0.201</v>
       </c>
       <c r="AM3">
-        <v>0.192</v>
+        <v>0.189</v>
       </c>
       <c r="AN3">
-        <v>-9.313501144164761</v>
+        <v>-8.761682242990654</v>
       </c>
       <c r="AO3">
-        <v>-2.165853658536586</v>
+        <v>-2.154228855721393</v>
       </c>
       <c r="AP3">
-        <v>-6.727688787185356</v>
+        <v>-8.509345794392523</v>
       </c>
       <c r="AQ3">
-        <v>-2.3125</v>
+        <v>-2.291005291005291</v>
       </c>
     </row>
   </sheetData>
